--- a/av/Donna_AR_07192024_1.xlsx
+++ b/av/Donna_AR_07192024_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LH9896/Library/CloudStorage/Box-Box/_TELL/Projects/TELL &amp; H2TX/UEBER CRINGE 2025/CRINGE_analysis/av/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE688956-C24F-594D-9327-E734BA1306C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35F93C6-A239-074B-903B-40B35207A924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
-    <t>Do you ever tell a story about another person thinking the other person was not near you, but then
-turned around and saw that person was sitting right next to you?</t>
-  </si>
-  <si>
     <t>No, I never, I try not to talk about people. I respect everybody.</t>
   </si>
   <si>
@@ -44,6 +40,10 @@
   </si>
   <si>
     <t>Annotation (Donna_AR_07192024)</t>
+  </si>
+  <si>
+    <t>Do you ever tell a story about another person thinking the other person was not near you, but then
+turned around and saw that person was standing right next to you?</t>
   </si>
 </sst>
 </file>
@@ -104,12 +104,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,7 +334,7 @@
   <dimension ref="A1:Y922"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -343,10 +346,10 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
@@ -373,28 +376,28 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="D4" s="4"/>
     </row>

--- a/av/Donna_AR_07192024_1.xlsx
+++ b/av/Donna_AR_07192024_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LH9896/Library/CloudStorage/Box-Box/_TELL/Projects/TELL &amp; H2TX/UEBER CRINGE 2025/CRINGE_analysis/av/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35F93C6-A239-074B-903B-40B35207A924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F721BB9-DF74-624C-ADD6-B956BAADD8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,8 +42,7 @@
     <t>Annotation (Donna_AR_07192024)</t>
   </si>
   <si>
-    <t>Do you ever tell a story about another person thinking the other person was not near you, but then
-turned around and saw that person was standing right next to you?</t>
+    <t>...but then turned around and saw that person was standing right next to you?</t>
   </si>
 </sst>
 </file>
